--- a/Appendix_B/B1_RawData/BE_RawData_VPython.xlsx
+++ b/Appendix_B/B1_RawData/BE_RawData_VPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\90_PresentationsAndWritting\90_Manuscript\5_Appendices\Appendix_B\B1_RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF3AEE7-CEC0-473C-BA3E-0E22B6E30022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB04BEB8-E078-4176-AB97-9071240838FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="16170" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="19" r:id="rId1"/>
@@ -69,16 +69,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{407A7C97-EB52-47A4-BCE1-6F42EAC4D62B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"L'industrie du verre en Belgique", Verre, vol 1, n° 4, July-August, 1987, p. 432-9</t>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{140E533E-04E7-430B-BE66-5E034C6E59FD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See: (NBB, n.d.)
+Index of flat glass production trends between 1950 and 1960. Series (1953 = 100):
+1950: 87
+1951: 108
+1952: 66
+1953: 100
+1954: 108
+1955: 136
+1956: 151
+1957: 130
+1958: 148
+1959: 186
+1960: 212
+Knowing that the production in 1960 reached 699.898kt (VIG-FIV 1994).</t>
         </r>
       </text>
     </comment>
@@ -93,6 +106,240 @@
           </rPr>
           <t>"L'industrie du verre en Belgique", Verre, vol 1, n° 4, July-August, 1987, p. 432-9
 See also: (Anon., 1958)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{578411F0-2513-4B41-8F9A-AA07F89519E3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See: (NBB, n.d.)
+Index of flat glass production trends between 1950 and 1960. Series (1953 = 100):
+1950: 87
+1951: 108
+1952: 66
+1953: 100
+1954: 108
+1955: 136
+1956: 151
+1957: 130
+1958: 148
+1959: 186
+1960: 212
+Knowing that the production in 1960 reached 699.898kt (VIG-FIV 1994).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{33573871-9792-46DD-B0AB-300581493006}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See: (NBB, n.d.)
+Index of flat glass production trends between 1950 and 1960. Series (1953 = 100):
+1950: 87
+1951: 108
+1952: 66
+1953: 100
+1954: 108
+1955: 136
+1956: 151
+1957: 130
+1958: 148
+1959: 186
+1960: 212
+Knowing that the production in 1960 reached 699.898kt (VIG-FIV 1994).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{30FB62F0-24DF-48ED-B70E-9FEF7FD5E74B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See: (NBB, n.d.)
+Index of flat glass production trends between 1950 and 1960. Series (1953 = 100):
+1950: 87
+1951: 108
+1952: 66
+1953: 100
+1954: 108
+1955: 136
+1956: 151
+1957: 130
+1958: 148
+1959: 186
+1960: 212
+Knowing that the production in 1960 reached 699.898kt (VIG-FIV 1994).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{25F0CE5D-D9E6-422F-A101-690DA70C2DB8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See: (NBB, n.d.)
+Index of flat glass production trends between 1950 and 1960. Series (1953 = 100):
+1950: 87
+1951: 108
+1952: 66
+1953: 100
+1954: 108
+1955: 136
+1956: 151
+1957: 130
+1958: 148
+1959: 186
+1960: 212
+Knowing that the production in 1960 reached 699.898kt (VIG-FIV 1994).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{39526605-1662-45E9-A793-82C7785B1DDA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See: (NBB, n.d.)
+Index of flat glass production trends between 1950 and 1960. Series (1953 = 100):
+1950: 87
+1951: 108
+1952: 66
+1953: 100
+1954: 108
+1955: 136
+1956: 151
+1957: 130
+1958: 148
+1959: 186
+1960: 212
+Knowing that the production in 1960 reached 699.898kt (VIG-FIV 1994).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{F70A4C5E-C250-4C93-A332-534861B068DA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See: (NBB, n.d.)
+Index of flat glass production trends between 1950 and 1960. Series (1953 = 100):
+1950: 87
+1951: 108
+1952: 66
+1953: 100
+1954: 108
+1955: 136
+1956: 151
+1957: 130
+1958: 148
+1959: 186
+1960: 212
+Knowing that the production in 1960 reached 699.898kt (VIG-FIV 1994).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{A6AAA90B-96F1-4DE0-8E33-005CEE53AF6C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See: (NBB, n.d.)
+Index of flat glass production trends between 1950 and 1960. Series (1953 = 100):
+1950: 87
+1951: 108
+1952: 66
+1953: 100
+1954: 108
+1955: 136
+1956: 151
+1957: 130
+1958: 148
+1959: 186
+1960: 212
+Knowing that the production in 1960 reached 699.898kt (VIG-FIV 1994).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{B11E8F6C-0044-47BB-B4AF-E53EDA624074}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See: (NBB, n.d.)
+Index of flat glass production trends between 1950 and 1960. Series (1953 = 100):
+1950: 87
+1951: 108
+1952: 66
+1953: 100
+1954: 108
+1955: 136
+1956: 151
+1957: 130
+1958: 148
+1959: 186
+1960: 212
+Knowing that the production in 1960 reached 699.898kt (VIG-FIV 1994).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{DEC895BA-FD36-43BC-AE92-45EE753A40CE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See: (NBB, n.d.)
+Index of flat glass production trends between 1950 and 1960. Series (1953 = 100):
+1950: 87
+1951: 108
+1952: 66
+1953: 100
+1954: 108
+1955: 136
+1956: 151
+1957: 130
+1958: 148
+1959: 186
+1960: 212
+Knowing that the production in 1960 reached 699.898kt (VIG-FIV 1994).</t>
         </r>
       </text>
     </comment>
@@ -2392,7 +2639,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>year</t>
   </si>
@@ -2421,28 +2668,16 @@
     <t>(Institut du verre, 1995-2000)</t>
   </si>
   <si>
-    <t>Institut du verre, 1995-2000. Verre. Institut du verre-Prover, Paris. Bibliothèque nationale de France, Sciences et techniques department, call number 4-JO-52115.</t>
-  </si>
-  <si>
     <t>(VGI-FIV, 1994)</t>
   </si>
   <si>
-    <t>Fédération de l'industrie du verre (VGI-FIV), 1994. Aperçu statistique de l'industrie verrière, 1960-1993.</t>
-  </si>
-  <si>
     <t>https://www.vgi-fiv.be/categorie_publication/economique/</t>
-  </si>
-  <si>
-    <t>ICEDD, 2014. Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global.</t>
   </si>
   <si>
     <t>https://energie.wallonie.be/servlet/Repository/spw_dgo4_energie_wallonie2012_bilanindustrieetbilanglobal_novembre2014_v2.pdf?ID=30744</t>
   </si>
   <si>
     <t>(ICEDD, 2014)</t>
-  </si>
-  <si>
-    <t>Fédération de l'industrie du verre (VGI-FIV), 1966. L'industrie du verre. Rapport annuel, exercice 1965.</t>
   </si>
   <si>
     <t>(VGI-FIV, 1966)</t>
@@ -2463,22 +2698,10 @@
     <t>(VGI-FIV, 2001)</t>
   </si>
   <si>
-    <t>Fédération de l'industrie du verre (VGI-FIV), 2001. La réduction des émissions de gaz à effet de serre.</t>
-  </si>
-  <si>
     <t>bldg glass/flat glass, %</t>
   </si>
   <si>
-    <t>Knoops, É, 1959. L'industrie belge du verre en 1958. Bulletin de l'Institut de recherches économiques et sociales, 25 (4), 355-64</t>
-  </si>
-  <si>
     <t>(Knoops, 1959)</t>
-  </si>
-  <si>
-    <t>Fédération de l'industrie du verre, 1970. L'industrie du verre en 1969. Brussels: Fédération de l'industrie du verre. Royal Library of Belgium, call number BD 25.971.</t>
-  </si>
-  <si>
-    <t>Anon., 1958. Le verre belge. Brussels: Fédération de l'industrie du verre. Royal Library of Belgium, call number B 14.280 1.</t>
   </si>
   <si>
     <t>(FIV, 1970)</t>
@@ -2490,10 +2713,273 @@
     <t>(CCE, 1984)</t>
   </si>
   <si>
-    <t>Commission des Communautés Européennes (CCE), 1984. L'industrie du verre dans la CEE.</t>
+    <t>https://op.europa.eu/en/publication-detail/-/publication/9441267d-6d47-461a-bc38-494d8c007e02/language-fr</t>
   </si>
   <si>
-    <t>https://op.europa.eu/en/publication-detail/-/publication/9441267d-6d47-461a-bc38-494d8c007e02/language-fr</t>
+    <t>(NBB, n.d.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Knoops, É, 1959. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L'industrie belge du verre en 1958</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Bulletin de l'Institut de recherches économiques et sociales, 25 (4), 355-64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ICEDD, 2014. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bilan énergétique de la Wallonie 2012. Bilan de l'industrie et bilan global</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Institut du verre, 1995-2000. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Institut du verre-Prover, Paris. Bibliothèque nationale de France, Sciences et techniques department, call number 4-JO-52115.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fédération de l'industrie du verre, 1970. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L'industrie du verre en 1969</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Brussels: Fédération de l'industrie du verre. Royal Library of Belgium, call number BD 25.971.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Commission des Communautés Européennes (CCE), 1984. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L'industrie du verre dans la CEE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anon., 1958. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le verre belge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Brussels: Fédération de l'industrie du verre. Royal Library of Belgium, call number B 14.280 1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fédération de l'industrie du verre (VGI-FIV), 1966. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L'industrie du verre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Rapport annuel, exercice 1965.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fédération de l'industrie du verre (VGI-FIV), 1994. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aperçu statistique de l'industrie verrière, 1960-1993</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fédération de l'industrie du verre (VGI-FIV), 2001. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La réduction des émissions de gaz à effet de serre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>www.nbb.be/doc/dq/f/dq3/histo/dfbb5060.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Banque nationale de Belgique (National Bank of Belgium, NBB), n.d. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Statistiques économques belges 1950-1960. Tome II : tableaux et graphiques</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Brussels, 64.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2661,13 +3147,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2681,11 +3166,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2699,19 +3181,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2729,7 +3208,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2748,9 +3227,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2809,24 +3285,23 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3138,830 +3613,834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025F8ED2-37F9-40BE-8E6A-7FBA957A3175}">
-  <dimension ref="A2:D23"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="118.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81" style="32" customWidth="1"/>
-    <col min="4" max="4" width="86.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81" style="29" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="D7" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="50"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="52" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="34"/>
+      <c r="D14" s="50"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="50"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="34"/>
+      <c r="D16" s="50"/>
+    </row>
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="34"/>
+      <c r="D18" s="50"/>
+    </row>
+    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D19" s="50"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="34"/>
+      <c r="D20" s="50"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="53"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="37"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="37"/>
-      <c r="D14" s="53"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="53"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="37"/>
-      <c r="D16" s="53"/>
-    </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="53"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="37"/>
-      <c r="D18" s="53"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="D23" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="37"/>
-      <c r="D22" s="53"/>
-    </row>
-    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="53"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="34"/>
+      <c r="D24" s="50"/>
+    </row>
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" xr:uid="{B84DBD6C-579B-48BC-96D1-AA795C116670}"/>
-    <hyperlink ref="D21" r:id="rId2" xr:uid="{BABC48D3-1AA2-44C3-9FD9-1ACF96779787}"/>
+    <hyperlink ref="D21" r:id="rId1" xr:uid="{B84DBD6C-579B-48BC-96D1-AA795C116670}"/>
+    <hyperlink ref="D23" r:id="rId2" xr:uid="{BABC48D3-1AA2-44C3-9FD9-1ACF96779787}"/>
     <hyperlink ref="D13" r:id="rId3" xr:uid="{9095B0BE-927F-4EF3-8BC6-7EABCBE59D13}"/>
     <hyperlink ref="D7" r:id="rId4" xr:uid="{4371CAEA-3697-4B9F-A4DE-F6DAFE38335E}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{FD28E295-23ED-4243-9166-F9A59227A9AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0982404-9C07-4082-8695-AA4274664C99}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="13.5703125" style="6"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="13.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1945</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="54">
+      <c r="B2" s="8"/>
+      <c r="C2" s="51">
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1946</v>
       </c>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1947</v>
       </c>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1948</v>
       </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1949</v>
       </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1950</v>
       </c>
-      <c r="B7" s="9">
-        <v>206.25</v>
-      </c>
-      <c r="C7" s="51">
+      <c r="B7" s="8">
+        <v>307.53093939393943</v>
+      </c>
+      <c r="C7" s="48">
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1951</v>
       </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>381.76254545454543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1952</v>
       </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>233.29933333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1953</v>
       </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>353.48383838383842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1954</v>
       </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>410.04125252525256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1955</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>459.52898989898995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1956</v>
       </c>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>512.55156565656569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1957</v>
       </c>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>484.27285858585856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1958</v>
       </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>512.55156565656569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1959</v>
       </c>
-      <c r="B16" s="30"/>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>600.92252525252525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1960</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>699.89800000000002</v>
       </c>
       <c r="C17" s="1">
         <v>0.88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1961</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>582.92999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1962</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>726.21799999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1963</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>642.11800000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1964</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>747.31899999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1965</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>606.51</v>
       </c>
       <c r="C22" s="1">
         <v>0.85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1966</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>619.07000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1967</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>633.10299999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1968</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>674.30100000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1969</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>729.02200000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1970</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>871</v>
       </c>
       <c r="C27" s="1">
         <v>0.82</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1971</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>813.495</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1972</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>850.19100000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1973</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>929.88099999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1974</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>830.64599999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1975</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>588.41</v>
       </c>
       <c r="C32" s="1">
         <v>0.76</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1976</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>768.41399999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1977</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>838.33699999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1978</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>811.57899999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1979</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>841.46900000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1980</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>856.35799999999995</v>
       </c>
       <c r="C37" s="1">
         <v>0.66</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1981</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>706.85</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1982</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>710</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>1983</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>706</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1984</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>840</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1985</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>802</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1986</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>825</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1987</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>885.95299999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1988</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>945.91</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1989</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>989.08500000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1990</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>1142</v>
       </c>
       <c r="C47" s="1">
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>1991</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>898</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>1992</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>1013</v>
       </c>
       <c r="C49" s="1">
         <v>0.62</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>1993</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>961</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>1994</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>1103</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>1995</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>1193</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>1996</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="8">
         <v>1138</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>1997</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>1162</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>1998</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <v>1125</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1999</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>1085</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2000</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>1134</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2001</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>1143</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2002</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>1275</v>
       </c>
       <c r="C59" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2003</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>1148</v>
       </c>
       <c r="C60" s="1">
         <v>0.72</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>2004</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="8">
         <v>1149</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>2005</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>1234</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>2006</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>1227</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>2007</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="8">
         <v>1363</v>
       </c>
       <c r="C64" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>2008</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>1301</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>2009</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>990</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2010</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="8">
         <v>1170</v>
       </c>
       <c r="C67" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>2011</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="8">
         <v>1226</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>2012</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="8">
         <v>1010</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>2013</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>2014</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>1186</v>
       </c>
       <c r="C71" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>2015</v>
       </c>
-      <c r="B72" s="7"/>
-    </row>
-    <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>2016</v>
       </c>
-      <c r="B73" s="7"/>
-    </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>2017</v>
       </c>
-      <c r="B74" s="7"/>
-    </row>
-    <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>2018</v>
       </c>
-      <c r="B75" s="7"/>
-    </row>
-    <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>2019</v>
       </c>
-      <c r="B76" s="7"/>
-    </row>
-    <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>2020</v>
       </c>
-      <c r="B77" s="7"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+      <c r="B77" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3984,690 +4463,690 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="13.5703125" style="15"/>
+    <col min="1" max="1" width="7" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="13.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>1945</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="14">
         <v>1946</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>1947</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>1948</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <v>1949</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="14">
         <v>1950</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>1951</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>1952</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>1953</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>1954</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>1955</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>1956</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="20"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>1957</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>1958</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>4.7309999999999999</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>1959</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>1960</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="20">
         <f>14+1</f>
         <v>15</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>1961</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <f>4+1</f>
         <v>5</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="14">
         <v>1962</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="20">
         <f>11+1</f>
         <v>12</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="14">
         <v>1963</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="20">
         <f>7+1</f>
         <v>8</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="14">
         <v>1964</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>22.033999999999999</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <v>1965</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>24.206</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>1966</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <f>32+3</f>
         <v>35</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <v>1967</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <f>26+1</f>
         <v>27</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <v>1968</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="20">
         <f>31+3</f>
         <v>34</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <v>1969</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="20">
         <f>30+6</f>
         <v>36</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="14">
         <v>1970</v>
       </c>
       <c r="B27" s="4">
         <f>30+7</f>
         <v>37</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="14">
         <v>1971</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="20">
         <f>29+9</f>
         <v>38</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="14">
         <v>1972</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="20">
         <f>38+7</f>
         <v>45</v>
       </c>
-      <c r="C29" s="24"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="14">
         <v>1973</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="20">
         <f>50+9</f>
         <v>59</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="14">
         <v>1974</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="20">
         <f>51+7</f>
         <v>58</v>
       </c>
-      <c r="C31" s="24"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="14">
         <v>1975</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="20">
         <f>46+7</f>
         <v>53</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="14">
         <v>1976</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="20">
         <f>75+10</f>
         <v>85</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="14">
         <v>1977</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="20">
         <f>84+14</f>
         <v>98</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="A35" s="14">
         <v>1978</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="20">
         <f>77+14</f>
         <v>91</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="A36" s="14">
         <v>1979</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="20">
         <f>94+16</f>
         <v>110</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="A37" s="14">
         <v>1980</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="20">
         <f>111+20</f>
         <v>131</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="A38" s="14">
         <v>1981</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="20">
         <f>110+18</f>
         <v>128</v>
       </c>
-      <c r="C38" s="24"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="A39" s="14">
         <v>1982</v>
       </c>
       <c r="B39" s="4">
         <f>154+17</f>
         <v>171</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="A40" s="14">
         <v>1983</v>
       </c>
       <c r="B40" s="4">
         <f>138+17</f>
         <v>155</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="A41" s="14">
         <v>1984</v>
       </c>
       <c r="B41" s="4">
         <f>118+18</f>
         <v>136</v>
       </c>
-      <c r="C41" s="24"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="A42" s="14">
         <v>1985</v>
       </c>
       <c r="B42" s="4">
         <f>131+20</f>
         <v>151</v>
       </c>
-      <c r="C42" s="24"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="A43" s="14">
         <v>1986</v>
       </c>
       <c r="B43" s="4">
         <f>136+24</f>
         <v>160</v>
       </c>
-      <c r="C43" s="24"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="A44" s="14">
         <v>1987</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="20">
         <f>166+30</f>
         <v>196</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="A45" s="14">
         <v>1988</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="20">
         <f>156+44</f>
         <v>200</v>
       </c>
-      <c r="C45" s="24"/>
+      <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="A46" s="14">
         <v>1989</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="20">
         <f>155+49</f>
         <v>204</v>
       </c>
-      <c r="C46" s="24"/>
+      <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+      <c r="A47" s="14">
         <v>1990</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="20">
         <f>142+45</f>
         <v>187</v>
       </c>
-      <c r="C47" s="24"/>
+      <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+      <c r="A48" s="14">
         <v>1991</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="20">
         <f>163+46</f>
         <v>209</v>
       </c>
-      <c r="C48" s="24"/>
+      <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
+      <c r="A49" s="14">
         <v>1992</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="20">
         <f>182+48</f>
         <v>230</v>
       </c>
-      <c r="C49" s="24"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
+      <c r="A50" s="14">
         <v>1993</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="24"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
+      <c r="A51" s="14">
         <v>1994</v>
       </c>
-      <c r="B51" s="22"/>
+      <c r="B51" s="20"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+      <c r="A52" s="14">
         <v>1995</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="20"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+      <c r="A53" s="14">
         <v>1996</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>227.74783500000004</v>
       </c>
-      <c r="C53" s="24"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="A54" s="14">
         <v>1997</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>144.56236999999996</v>
       </c>
-      <c r="C54" s="24"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+      <c r="A55" s="14">
         <v>1998</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>219.30247999999997</v>
       </c>
-      <c r="C55" s="24"/>
+      <c r="C55" s="22"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+      <c r="A56" s="14">
         <v>1999</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>257.18237499999998</v>
       </c>
-      <c r="C56" s="24"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
+      <c r="A57" s="14">
         <v>2000</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>250.85938999999999</v>
       </c>
-      <c r="C57" s="24"/>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+      <c r="A58" s="14">
         <v>2001</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>238.67235000000002</v>
       </c>
-      <c r="C58" s="24"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+      <c r="A59" s="14">
         <v>2002</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>245.98853500000001</v>
       </c>
-      <c r="C59" s="24"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+      <c r="A60" s="14">
         <v>2003</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>262.16664499999996</v>
       </c>
-      <c r="C60" s="24"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
+      <c r="A61" s="14">
         <v>2004</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>270.80542999999994</v>
       </c>
-      <c r="C61" s="24"/>
+      <c r="C61" s="22"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+      <c r="A62" s="14">
         <v>2005</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>272.66947499999998</v>
       </c>
-      <c r="C62" s="24"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="16">
+      <c r="A63" s="14">
         <v>2006</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>286.68788999999992</v>
       </c>
-      <c r="C63" s="24"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
+      <c r="A64" s="14">
         <v>2007</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>327.98110000000008</v>
       </c>
-      <c r="C64" s="24"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
+      <c r="A65" s="14">
         <v>2008</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>298.70961000000005</v>
       </c>
-      <c r="C65" s="24"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
+      <c r="A66" s="14">
         <v>2009</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>226.05818500000001</v>
       </c>
-      <c r="C66" s="24"/>
+      <c r="C66" s="22"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="16">
+      <c r="A67" s="14">
         <v>2010</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>291.62551499999995</v>
       </c>
-      <c r="C67" s="24"/>
+      <c r="C67" s="22"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="16">
+      <c r="A68" s="14">
         <v>2011</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>276.16961000000003</v>
       </c>
-      <c r="C68" s="24"/>
+      <c r="C68" s="22"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="16">
+      <c r="A69" s="14">
         <v>2012</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>238.987775</v>
       </c>
-      <c r="C69" s="24"/>
+      <c r="C69" s="22"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="16">
+      <c r="A70" s="14">
         <v>2013</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>273.47733999999997</v>
       </c>
-      <c r="C70" s="24"/>
+      <c r="C70" s="22"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="16">
+      <c r="A71" s="14">
         <v>2014</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>240.30352999999999</v>
       </c>
-      <c r="C71" s="24"/>
+      <c r="C71" s="22"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="16">
+      <c r="A72" s="14">
         <v>2015</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>224.46110999999999</v>
       </c>
-      <c r="C72" s="24"/>
+      <c r="C72" s="22"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="16">
+      <c r="A73" s="14">
         <v>2016</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>216.26886500000001</v>
       </c>
-      <c r="C73" s="24"/>
+      <c r="C73" s="22"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+      <c r="A74" s="14">
         <v>2017</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>230.95865499999996</v>
       </c>
-      <c r="C74" s="24"/>
+      <c r="C74" s="22"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="16">
+      <c r="A75" s="14">
         <v>2018</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>228.64879500000001</v>
       </c>
-      <c r="C75" s="24"/>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
+      <c r="A76" s="14">
         <v>2019</v>
       </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="16">
+      <c r="A77" s="14">
         <v>2020</v>
       </c>
-      <c r="C77" s="24"/>
+      <c r="C77" s="22"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="24"/>
+      <c r="C78" s="22"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="24"/>
+      <c r="C79" s="22"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="24"/>
+      <c r="C80" s="22"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="24"/>
+      <c r="C81" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4679,7 +5158,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA587BC-FAB8-4B3E-8393-9A15FDDF8E5E}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4691,800 +5170,757 @@
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="13.5703125" style="6"/>
+    <col min="2" max="2" width="20.140625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="13.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>1945</v>
       </c>
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>1946</v>
       </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>1947</v>
       </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>1948</v>
       </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>1949</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>1950</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>1951</v>
       </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>1952</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>1953</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <f>12*17.961</f>
         <v>215.53199999999998</v>
       </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>1954</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <f>12*20.025</f>
         <v>240.29999999999998</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>1955</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <f>12*27.272</f>
         <v>327.26400000000001</v>
       </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>1956</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <f>12*28.632</f>
         <v>343.584</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>1957</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <f>12*24.209</f>
         <v>290.50799999999998</v>
       </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>1958</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <f>12*27.366</f>
         <v>328.392</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>1959</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <f>12*35.975</f>
         <v>431.70000000000005</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>1960</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <f>12*38.486</f>
         <v>461.83199999999999</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="C17" s="22"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>1961</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <f>12*32.923</f>
         <v>395.07600000000002</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="C18" s="22"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>1962</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <f>12*39.034</f>
         <v>468.40800000000002</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="C19" s="22"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>1963</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <f>12*36.272</f>
         <v>435.26400000000001</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="C20" s="22"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>1964</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <f>12*40.991</f>
         <v>491.892</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="C21" s="22"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>1965</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <f>12*34.918</f>
         <v>419.01599999999996</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="C22" s="22"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>1966</v>
       </c>
       <c r="B23" s="4">
         <f>328+66</f>
         <v>394</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="C23" s="22"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>1967</v>
       </c>
       <c r="B24" s="4">
         <f>315+72</f>
         <v>387</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="C24" s="22"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>1968</v>
       </c>
       <c r="B25" s="4">
         <f>354+76</f>
         <v>430</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="C25" s="22"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>1969</v>
       </c>
       <c r="B26" s="4">
         <f>369+82</f>
         <v>451</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="C26" s="22"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>1970</v>
       </c>
       <c r="B27" s="4">
         <f>479+92</f>
         <v>571</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="C27" s="22"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <v>1971</v>
       </c>
       <c r="B28" s="4">
         <f>425+97</f>
         <v>522</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="C28" s="22"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>1972</v>
       </c>
       <c r="B29" s="4">
         <f>498+101</f>
         <v>599</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="C29" s="22"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>1973</v>
       </c>
       <c r="B30" s="4">
         <f>500+102</f>
         <v>602</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="C30" s="22"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>1974</v>
       </c>
       <c r="B31" s="4">
         <f>457+90</f>
         <v>547</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="C31" s="22"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>1975</v>
       </c>
       <c r="B32" s="4">
         <f>304+80</f>
         <v>384</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="C32" s="22"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>1976</v>
       </c>
       <c r="B33" s="4">
         <f>447+89</f>
         <v>536</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="C33" s="22"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>1977</v>
       </c>
       <c r="B34" s="4">
         <f>497+78</f>
         <v>575</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="C34" s="22"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>1978</v>
       </c>
       <c r="B35" s="4">
         <f>572+89</f>
         <v>661</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="C35" s="22"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <v>1979</v>
       </c>
       <c r="B36" s="4">
         <f>578+96</f>
         <v>674</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="C36" s="22"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <v>1980</v>
       </c>
       <c r="B37" s="4">
         <f>576+113</f>
         <v>689</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="C37" s="22"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
         <v>1981</v>
       </c>
       <c r="B38" s="4">
         <f>519+101</f>
         <v>620</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="C38" s="22"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <v>1982</v>
       </c>
       <c r="B39" s="4">
         <f>601+108</f>
         <v>709</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="C39" s="22"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
         <v>1983</v>
       </c>
       <c r="B40" s="4">
         <f>645+124</f>
         <v>769</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="C40" s="22"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
         <v>1984</v>
       </c>
       <c r="B41" s="4">
         <f>718+142</f>
         <v>860</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="C41" s="22"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>1985</v>
       </c>
       <c r="B42" s="4">
         <f>688+153</f>
         <v>841</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="C42" s="22"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
         <v>1986</v>
       </c>
       <c r="B43" s="4">
         <f>726+167</f>
         <v>893</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="C43" s="22"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
         <v>1987</v>
       </c>
       <c r="B44" s="4">
         <f>770+194</f>
         <v>964</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+      <c r="C44" s="22"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
         <v>1988</v>
       </c>
       <c r="B45" s="4">
         <f>757+229</f>
         <v>986</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="C45" s="22"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
         <v>1989</v>
       </c>
       <c r="B46" s="4">
         <f>934+252</f>
         <v>1186</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+      <c r="C46" s="22"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
         <v>1990</v>
       </c>
       <c r="B47" s="4">
         <f>961+239</f>
         <v>1200</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="C47" s="22"/>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
         <v>1991</v>
       </c>
       <c r="B48" s="4">
         <f>836+232</f>
         <v>1068</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+      <c r="C48" s="22"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
         <v>1992</v>
       </c>
       <c r="B49" s="4">
         <f>846+229</f>
         <v>1075</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
+      <c r="C49" s="22"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
         <v>1993</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="C50" s="22"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
         <v>1994</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+      <c r="C51" s="22"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
         <v>1995</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
+      <c r="C52" s="22"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
         <v>1996</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>1001.9805700000001</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+      <c r="C53" s="22"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
         <v>1997</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>905.90501374999997</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="C54" s="22"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
         <v>1998</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>974.52436250000005</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
+      <c r="C55" s="22"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
         <v>1999</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>820.31628624999996</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
+      <c r="C56" s="22"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
         <v>2000</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>877.64043249999997</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
+      <c r="C57" s="22"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
         <v>2001</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>866.15694500000006</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
+      <c r="C58" s="22"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
         <v>2002</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>1123.6860987499999</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
+      <c r="C59" s="22"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
         <v>2003</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>1035.6898874999999</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
+      <c r="C60" s="22"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
         <v>2004</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>1041.0621912500001</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
+      <c r="C61" s="22"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
         <v>2005</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>1017.1818999999999</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12">
+      <c r="C62" s="22"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
         <v>2006</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>1042.5845850000003</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="28"/>
-    </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
+      <c r="C63" s="22"/>
+      <c r="D63" s="26"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
         <v>2007</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>1094.7087087500004</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
+      <c r="C64" s="22"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
         <v>2008</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>1083.00373375</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12">
+      <c r="C65" s="22"/>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
         <v>2009</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>813.35615250000012</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
+      <c r="C66" s="22"/>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
         <v>2010</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>912.00054875000001</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
+      <c r="C67" s="22"/>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
         <v>2011</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>959.89590125000018</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="10"/>
-    </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
+      <c r="C68" s="22"/>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
         <v>2012</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>780.67346000000009</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="10"/>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
+      <c r="C69" s="22"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
         <v>2013</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>791.69499749999989</v>
       </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12">
+      <c r="C70" s="21"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
         <v>2014</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>634.72707749999995</v>
       </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12">
+      <c r="C71" s="21"/>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
         <v>2015</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>643.42857000000015</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="10"/>
-    </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="12">
+      <c r="C72" s="21"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
         <v>2016</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>499.78879875000001</v>
       </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12">
+      <c r="C73" s="21"/>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
         <v>2017</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>547.19474625000009</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="10"/>
-    </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12">
+      <c r="C74" s="21"/>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
         <v>2018</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>547.75624375000007</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="10"/>
-    </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12">
+      <c r="C75" s="21"/>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
         <v>2019</v>
       </c>
-      <c r="D76" s="10"/>
-    </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12">
+      <c r="B76" s="1"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
         <v>2020</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+      <c r="D77" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5503,899 +5939,899 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.140625" style="43" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="43"/>
+    <col min="1" max="1" width="8" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.140625" style="40" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:5" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>21</v>
+      <c r="B1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="38">
         <v>1945</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="38">
         <v>1946</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="38">
         <v>1947</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="38">
         <v>1948</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="38">
         <v>1949</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="38">
         <v>1950</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="39">
         <v>30.98</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="39">
         <v>0.73</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="39">
         <v>0</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="39">
         <f>SUM(B7:D7)</f>
         <v>31.71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="38">
         <v>1951</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="38">
         <v>1952</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="38">
         <v>1953</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
+      <c r="A11" s="38">
         <v>1954</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="38">
         <v>1955</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
+      <c r="A13" s="38">
         <v>1956</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+      <c r="A14" s="38">
         <v>1957</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="38">
         <v>1958</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="38">
         <v>1959</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
+      <c r="A17" s="38">
         <v>1960</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="42">
         <f>0.9*E17</f>
         <v>18.900000000000002</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="42">
         <f>0.04*E17</f>
         <v>0.84</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="42">
         <f>0.06*E17</f>
         <v>1.26</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="45">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
+      <c r="A18" s="38">
         <v>1961</v>
       </c>
-      <c r="E18" s="48"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
+      <c r="A19" s="38">
         <v>1962</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+      <c r="A20" s="38">
         <v>1963</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="E20" s="48"/>
+      <c r="B20" s="41"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="38">
         <v>1964</v>
       </c>
-      <c r="E21" s="48"/>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="38">
         <v>1965</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="42">
         <f>0.79*E22</f>
         <v>16.6295</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="42">
         <f>0.055*E22</f>
         <v>1.1577500000000001</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="42">
         <f>0.12*E22</f>
         <v>2.5259999999999998</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="45">
         <v>21.05</v>
       </c>
-      <c r="J22" s="49"/>
+      <c r="J22" s="46"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="41">
+      <c r="A23" s="38">
         <v>1966</v>
       </c>
-      <c r="E23" s="48"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="41">
+      <c r="A24" s="38">
         <v>1967</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="48"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="41">
+      <c r="A25" s="38">
         <v>1968</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="48"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
+      <c r="A26" s="38">
         <v>1969</v>
       </c>
-      <c r="E26" s="48"/>
+      <c r="E26" s="45"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="41">
+      <c r="A27" s="38">
         <v>1970</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="41">
         <f>0.79*E27</f>
         <v>15.721</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="41">
         <f>0.04*E27</f>
         <v>0.79599999999999993</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="41">
         <f>0.17*E27</f>
         <v>3.383</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="45">
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="41">
+      <c r="A28" s="38">
         <v>1971</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="48"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="45"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="41">
+      <c r="A29" s="38">
         <v>1972</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="48"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="45"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="41">
+      <c r="A30" s="38">
         <v>1973</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="48"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="45"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="41">
+      <c r="A31" s="38">
         <v>1974</v>
       </c>
-      <c r="E31" s="48"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="41">
+      <c r="A32" s="38">
         <v>1975</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="41">
         <f>0.77*E32</f>
         <v>13.636700000000001</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="41">
         <f>0.04*E32</f>
         <v>0.70840000000000003</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="41">
         <f>0.18*E32</f>
         <v>3.1878000000000002</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="45">
         <v>17.71</v>
       </c>
-      <c r="J32" s="49"/>
+      <c r="J32" s="46"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="41">
+      <c r="A33" s="38">
         <v>1976</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="48"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="45"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="41">
+      <c r="A34" s="38">
         <v>1977</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="48"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="45"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="41">
+      <c r="A35" s="38">
         <v>1978</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="48"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="45"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="41">
+      <c r="A36" s="38">
         <v>1979</v>
       </c>
-      <c r="E36" s="48"/>
+      <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="41">
+      <c r="A37" s="38">
         <v>1980</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="41">
         <f>0.68*E37</f>
         <v>10.376800000000001</v>
       </c>
-      <c r="C37" s="44">
+      <c r="C37" s="41">
         <f>0.04*E37</f>
         <v>0.61040000000000005</v>
       </c>
-      <c r="D37" s="44">
+      <c r="D37" s="41">
         <f>0.3*E37</f>
         <v>4.5779999999999994</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="45">
         <v>15.26</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="41">
+      <c r="A38" s="38">
         <v>1981</v>
       </c>
-      <c r="E38" s="48"/>
+      <c r="E38" s="45"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="41">
+      <c r="A39" s="38">
         <v>1982</v>
       </c>
-      <c r="E39" s="48"/>
+      <c r="E39" s="45"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="41">
+      <c r="A40" s="38">
         <v>1983</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="48"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="45"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="41">
+      <c r="A41" s="38">
         <v>1984</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="J41" s="49"/>
+      <c r="E41" s="45"/>
+      <c r="J41" s="46"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="41">
+      <c r="A42" s="38">
         <v>1985</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="41">
         <f>0.65*E42</f>
         <v>8.918000000000001</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C42" s="41">
         <f>0.04*E42</f>
         <v>0.54880000000000007</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="41">
         <f>0.3*E42</f>
         <v>4.1159999999999997</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="45">
         <v>13.72</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="41">
+      <c r="A43" s="38">
         <v>1986</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="48"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="45"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="41">
+      <c r="A44" s="38">
         <v>1987</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="48"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="45"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="41">
+      <c r="A45" s="38">
         <v>1988</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="41">
         <f>0.65*E45</f>
         <v>8.1640000000000015</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C45" s="41">
         <f>0.04*E45</f>
         <v>0.50240000000000007</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="41">
         <f>0.3*E45</f>
         <v>3.7679999999999998</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="45">
         <v>12.56</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="41">
+      <c r="A46" s="38">
         <v>1989</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="44"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="41"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="41">
+      <c r="A47" s="38">
         <v>1990</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="44"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="41"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="41">
+      <c r="A48" s="38">
         <v>1991</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="44"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="41"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="41">
+      <c r="A49" s="38">
         <v>1992</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="41">
+      <c r="A50" s="38">
         <v>1993</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="41">
+      <c r="A51" s="38">
         <v>1994</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="41">
+      <c r="A52" s="38">
         <v>1995</v>
       </c>
-      <c r="B52" s="44">
+      <c r="B52" s="41">
         <v>5.01</v>
       </c>
-      <c r="C52" s="44">
+      <c r="C52" s="41">
         <v>1.48</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D52" s="41">
         <v>4.8</v>
       </c>
-      <c r="E52" s="44">
+      <c r="E52" s="41">
         <v>11.3</v>
       </c>
-      <c r="F52" s="44"/>
+      <c r="F52" s="41"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="41">
+      <c r="A53" s="38">
         <v>1996</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="41">
+      <c r="A54" s="38">
         <v>1997</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="41">
+      <c r="A55" s="38">
         <v>1998</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="41">
+      <c r="A56" s="38">
         <v>1999</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="41">
+      <c r="A57" s="38">
         <v>2000</v>
       </c>
-      <c r="F57" s="44"/>
+      <c r="F57" s="41"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="41">
+      <c r="A58" s="38">
         <v>2001</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="41">
+      <c r="A59" s="38">
         <v>2002</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="41">
+      <c r="A60" s="38">
         <v>2003</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="41">
+      <c r="A61" s="38">
         <v>2004</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="41">
+      <c r="A62" s="38">
         <v>2005</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="41">
+      <c r="A63" s="38">
         <v>2006</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="41">
+      <c r="A64" s="38">
         <v>2007</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A65" s="41">
+      <c r="A65" s="38">
         <v>2008</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A66" s="41">
+      <c r="A66" s="38">
         <v>2009</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="45"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="42"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A67" s="41">
+      <c r="A67" s="38">
         <v>2010</v>
       </c>
-      <c r="B67" s="44">
+      <c r="B67" s="41">
         <v>2.1</v>
       </c>
-      <c r="C67" s="44">
+      <c r="C67" s="41">
         <v>0.9</v>
       </c>
-      <c r="D67" s="44">
+      <c r="D67" s="41">
         <v>6.1</v>
       </c>
-      <c r="E67" s="42">
+      <c r="E67" s="39">
         <v>9.1</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A68" s="41">
+      <c r="A68" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A69" s="41">
+      <c r="A69" s="38">
         <v>2012</v>
       </c>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A70" s="41">
+      <c r="A70" s="38">
         <v>2013</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A71" s="41">
+      <c r="A71" s="38">
         <v>2014</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A72" s="41">
+      <c r="A72" s="38">
         <v>2015</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A73" s="41">
+      <c r="A73" s="38">
         <v>2016</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A74" s="41">
+      <c r="A74" s="38">
         <v>2017</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A75" s="41">
+      <c r="A75" s="38">
         <v>2018</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A76" s="41">
+      <c r="A76" s="38">
         <v>2019</v>
       </c>
-      <c r="B76" s="44">
+      <c r="B76" s="41">
         <v>2.1</v>
       </c>
-      <c r="C76" s="44">
+      <c r="C76" s="41">
         <v>0.9</v>
       </c>
-      <c r="D76" s="44">
+      <c r="D76" s="41">
         <v>6.1</v>
       </c>
-      <c r="E76" s="42">
+      <c r="E76" s="39">
         <v>9.1</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A77" s="41">
+      <c r="A77" s="38">
         <v>2020</v>
       </c>
     </row>
-    <row r="78" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="46"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="43"/>
-      <c r="Z78" s="43"/>
-      <c r="AA78" s="43"/>
-      <c r="AB78" s="43"/>
-      <c r="AC78" s="43"/>
-      <c r="AD78" s="43"/>
-      <c r="AE78" s="43"/>
-      <c r="AF78" s="43"/>
-      <c r="AG78" s="43"/>
-      <c r="AH78" s="43"/>
-      <c r="AI78" s="43"/>
-      <c r="AJ78" s="43"/>
-      <c r="AK78" s="43"/>
-      <c r="AL78" s="43"/>
-    </row>
-    <row r="79" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="46"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="43"/>
-      <c r="R79" s="43"/>
-      <c r="S79" s="43"/>
-      <c r="T79" s="43"/>
-      <c r="U79" s="43"/>
-      <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="43"/>
-      <c r="Y79" s="43"/>
-      <c r="Z79" s="43"/>
-      <c r="AA79" s="43"/>
-      <c r="AB79" s="43"/>
-      <c r="AC79" s="43"/>
-      <c r="AD79" s="43"/>
-      <c r="AE79" s="43"/>
-      <c r="AF79" s="43"/>
-      <c r="AG79" s="43"/>
-      <c r="AH79" s="43"/>
-      <c r="AI79" s="43"/>
-      <c r="AJ79" s="43"/>
-      <c r="AK79" s="43"/>
-      <c r="AL79" s="43"/>
-    </row>
-    <row r="80" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="46"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
-      <c r="Q80" s="43"/>
-      <c r="R80" s="43"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="43"/>
-      <c r="U80" s="43"/>
-      <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="43"/>
-      <c r="Y80" s="43"/>
-      <c r="Z80" s="43"/>
-      <c r="AA80" s="43"/>
-      <c r="AB80" s="43"/>
-      <c r="AC80" s="43"/>
-      <c r="AD80" s="43"/>
-      <c r="AE80" s="43"/>
-      <c r="AF80" s="43"/>
-      <c r="AG80" s="43"/>
-      <c r="AH80" s="43"/>
-      <c r="AI80" s="43"/>
-      <c r="AJ80" s="43"/>
-      <c r="AK80" s="43"/>
-      <c r="AL80" s="43"/>
-    </row>
-    <row r="87" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="46"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="43"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="43"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
-      <c r="Q87" s="43"/>
-      <c r="R87" s="43"/>
-      <c r="S87" s="43"/>
-      <c r="T87" s="43"/>
-      <c r="U87" s="43"/>
-      <c r="V87" s="43"/>
-      <c r="W87" s="43"/>
-      <c r="X87" s="43"/>
-      <c r="Y87" s="43"/>
-      <c r="Z87" s="43"/>
-      <c r="AA87" s="43"/>
-      <c r="AB87" s="43"/>
-      <c r="AC87" s="43"/>
-      <c r="AD87" s="43"/>
-      <c r="AE87" s="43"/>
-      <c r="AF87" s="43"/>
-      <c r="AG87" s="43"/>
-      <c r="AH87" s="43"/>
-      <c r="AI87" s="43"/>
-      <c r="AJ87" s="43"/>
-      <c r="AK87" s="43"/>
-      <c r="AL87" s="43"/>
-    </row>
-    <row r="88" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="46"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="43"/>
-      <c r="R88" s="43"/>
-      <c r="S88" s="43"/>
-      <c r="T88" s="43"/>
-      <c r="U88" s="43"/>
-      <c r="V88" s="43"/>
-      <c r="W88" s="43"/>
-      <c r="X88" s="43"/>
-      <c r="Y88" s="43"/>
-      <c r="Z88" s="43"/>
-      <c r="AA88" s="43"/>
-      <c r="AB88" s="43"/>
-      <c r="AC88" s="43"/>
-      <c r="AD88" s="43"/>
-      <c r="AE88" s="43"/>
-      <c r="AF88" s="43"/>
-      <c r="AG88" s="43"/>
-      <c r="AH88" s="43"/>
-      <c r="AI88" s="43"/>
-      <c r="AJ88" s="43"/>
-      <c r="AK88" s="43"/>
-      <c r="AL88" s="43"/>
+    <row r="78" spans="1:38" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="43"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="40"/>
+      <c r="U78" s="40"/>
+      <c r="V78" s="40"/>
+      <c r="W78" s="40"/>
+      <c r="X78" s="40"/>
+      <c r="Y78" s="40"/>
+      <c r="Z78" s="40"/>
+      <c r="AA78" s="40"/>
+      <c r="AB78" s="40"/>
+      <c r="AC78" s="40"/>
+      <c r="AD78" s="40"/>
+      <c r="AE78" s="40"/>
+      <c r="AF78" s="40"/>
+      <c r="AG78" s="40"/>
+      <c r="AH78" s="40"/>
+      <c r="AI78" s="40"/>
+      <c r="AJ78" s="40"/>
+      <c r="AK78" s="40"/>
+      <c r="AL78" s="40"/>
+    </row>
+    <row r="79" spans="1:38" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="43"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="40"/>
+      <c r="U79" s="40"/>
+      <c r="V79" s="40"/>
+      <c r="W79" s="40"/>
+      <c r="X79" s="40"/>
+      <c r="Y79" s="40"/>
+      <c r="Z79" s="40"/>
+      <c r="AA79" s="40"/>
+      <c r="AB79" s="40"/>
+      <c r="AC79" s="40"/>
+      <c r="AD79" s="40"/>
+      <c r="AE79" s="40"/>
+      <c r="AF79" s="40"/>
+      <c r="AG79" s="40"/>
+      <c r="AH79" s="40"/>
+      <c r="AI79" s="40"/>
+      <c r="AJ79" s="40"/>
+      <c r="AK79" s="40"/>
+      <c r="AL79" s="40"/>
+    </row>
+    <row r="80" spans="1:38" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="43"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="40"/>
+      <c r="X80" s="40"/>
+      <c r="Y80" s="40"/>
+      <c r="Z80" s="40"/>
+      <c r="AA80" s="40"/>
+      <c r="AB80" s="40"/>
+      <c r="AC80" s="40"/>
+      <c r="AD80" s="40"/>
+      <c r="AE80" s="40"/>
+      <c r="AF80" s="40"/>
+      <c r="AG80" s="40"/>
+      <c r="AH80" s="40"/>
+      <c r="AI80" s="40"/>
+      <c r="AJ80" s="40"/>
+      <c r="AK80" s="40"/>
+      <c r="AL80" s="40"/>
+    </row>
+    <row r="87" spans="1:38" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="43"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="40"/>
+      <c r="X87" s="40"/>
+      <c r="Y87" s="40"/>
+      <c r="Z87" s="40"/>
+      <c r="AA87" s="40"/>
+      <c r="AB87" s="40"/>
+      <c r="AC87" s="40"/>
+      <c r="AD87" s="40"/>
+      <c r="AE87" s="40"/>
+      <c r="AF87" s="40"/>
+      <c r="AG87" s="40"/>
+      <c r="AH87" s="40"/>
+      <c r="AI87" s="40"/>
+      <c r="AJ87" s="40"/>
+      <c r="AK87" s="40"/>
+      <c r="AL87" s="40"/>
+    </row>
+    <row r="88" spans="1:38" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="43"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="40"/>
+      <c r="X88" s="40"/>
+      <c r="Y88" s="40"/>
+      <c r="Z88" s="40"/>
+      <c r="AA88" s="40"/>
+      <c r="AB88" s="40"/>
+      <c r="AC88" s="40"/>
+      <c r="AD88" s="40"/>
+      <c r="AE88" s="40"/>
+      <c r="AF88" s="40"/>
+      <c r="AG88" s="40"/>
+      <c r="AH88" s="40"/>
+      <c r="AI88" s="40"/>
+      <c r="AJ88" s="40"/>
+      <c r="AK88" s="40"/>
+      <c r="AL88" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6405,7 +6841,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20697ACE-82C7-45F0-9119-243699C7EDD6}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
@@ -6419,615 +6855,582 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>1945</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>1946</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>1947</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>8512</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>1948</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>1949</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>1950</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>1951</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>1952</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>1953</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>1954</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>1955</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>1956</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>1957</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>1958</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>1959</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>1960</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>9153</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
         <v>1961</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>9184</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="10">
         <v>1962</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>9221</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="10">
         <v>1963</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>9290</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="10">
         <v>1964</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>9378</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="10">
         <v>1965</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>9464</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="10">
         <v>1966</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>9528</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="10">
         <v>1967</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>9581</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="10">
         <v>1968</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>9619</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="10">
         <v>1969</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>9646</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="10">
         <v>1970</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>9656</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="10">
         <v>1971</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>9673</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="10">
         <v>1972</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>9711</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="A30" s="10">
         <v>1973</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>9742</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="10">
         <v>1974</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>9772</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="10">
         <v>1975</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>9801</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="A33" s="10">
         <v>1976</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>9818</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="10">
         <v>1977</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>9830</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="10">
         <v>1978</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>9840</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="10">
         <v>1979</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>9848</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="10">
         <v>1980</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>9859</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="10">
         <v>1981</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>9859</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="10">
         <v>1982</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>9856</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="10">
         <v>1983</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>9856</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="A41" s="10">
         <v>1984</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>9855</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="10">
         <v>1985</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>9858</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="A43" s="10">
         <v>1986</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>9862</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="A44" s="10">
         <v>1987</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>9870</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+      <c r="A45" s="10">
         <v>1988</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>9902</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="A46" s="10">
         <v>1989</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>9938</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+      <c r="A47" s="10">
         <v>1990</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>9967</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="A48" s="10">
         <v>1991</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>10004</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+      <c r="A49" s="10">
         <v>1992</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>10045</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
+      <c r="A50" s="10">
         <v>1993</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>10084</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="A51" s="10">
         <v>1994</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>10116</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+      <c r="A52" s="10">
         <v>1995</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>10137</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
+      <c r="A53" s="10">
         <v>1996</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>10157</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+      <c r="A54" s="10">
         <v>1997</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>10181</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="A55" s="10">
         <v>1998</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>10203</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
+      <c r="A56" s="10">
         <v>1999</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>10226</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
+      <c r="A57" s="10">
         <v>2000</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>10251</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
+      <c r="A58" s="10">
         <v>2001</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>10287</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
+      <c r="A59" s="10">
         <v>2002</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>10333</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
+      <c r="A60" s="10">
         <v>2003</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>10376</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
+      <c r="A61" s="10">
         <v>2004</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>10421</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
+      <c r="A62" s="10">
         <v>2005</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>10479</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="12">
+      <c r="A63" s="10">
         <v>2006</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>10548</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
+      <c r="A64" s="10">
         <v>2007</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>10626</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
+      <c r="A65" s="10">
         <v>2008</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>10710</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="12">
+      <c r="A66" s="10">
         <v>2009</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>10796</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
+      <c r="A67" s="10">
         <v>2010</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>10896</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
+      <c r="A68" s="10">
         <v>2011</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>10994</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
+      <c r="A69" s="10">
         <v>2012</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>11068</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
+      <c r="A70" s="10">
         <v>2013</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>11125</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="12">
+      <c r="A71" s="10">
         <v>2014</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>11180</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="12">
+      <c r="A72" s="10">
         <v>2015</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>11238</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="12">
+      <c r="A73" s="10">
         <v>2016</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>11295</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="12">
+      <c r="A74" s="10">
         <v>2017</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>11349</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="12">
+      <c r="A75" s="10">
         <v>2018</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>11404</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="12">
+      <c r="A76" s="10">
         <v>2019</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>11481</v>
       </c>
-      <c r="C76" s="27"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="12">
+      <c r="A77" s="10">
         <v>2020</v>
       </c>
-      <c r="B77" s="26">
+      <c r="B77" s="24">
         <v>11493</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
